--- a/s7/entrees.xlsx
+++ b/s7/entrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64053284332b5f0/Documents/Work/Perso/Projets/RP1/RP1_Fantasy/s7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4D9D64A577C15A4A541879189B73385ADEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD3AC342-2925-4E69-B52C-43945109388E}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D9D64A577C15A4A541879189B73385ADEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03EABBF6-788E-4E86-8DC7-6B327AD33DB1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="127">
   <si>
     <t>Discord#0000</t>
   </si>
@@ -333,33 +333,6 @@
     <t>FcT LaSouche#9836</t>
   </si>
   <si>
-    <t>pilote_favori_d1</t>
-  </si>
-  <si>
-    <t>pilote_outsider_d1</t>
-  </si>
-  <si>
-    <t>pilote_talent_d1</t>
-  </si>
-  <si>
-    <t>pilote_favori_d2</t>
-  </si>
-  <si>
-    <t>pilote_outsider_d2</t>
-  </si>
-  <si>
-    <t>pilote_favori_d3</t>
-  </si>
-  <si>
-    <t>pilote_outsider_d3</t>
-  </si>
-  <si>
-    <t>pilote_favori_d4</t>
-  </si>
-  <si>
-    <t>pilote_outsider_d4</t>
-  </si>
-  <si>
     <t>FRA Raaven</t>
   </si>
   <si>
@@ -424,6 +397,15 @@
   </si>
   <si>
     <t>Non4me Cami#7515</t>
+  </si>
+  <si>
+    <t>Favoris</t>
+  </si>
+  <si>
+    <t>Outsiders</t>
+  </si>
+  <si>
+    <t>Talents</t>
   </si>
 </sst>
 </file>
@@ -869,42 +851,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -1011,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -1043,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1203,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -1235,7 +1217,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
@@ -1267,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1299,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
@@ -1427,7 +1409,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>21</v>
@@ -1459,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -1523,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
@@ -1683,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -2003,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>37</v>
@@ -2035,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>37</v>
@@ -2061,7 +2043,7 @@
     </row>
     <row r="38" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
@@ -2125,7 +2107,7 @@
     </row>
     <row r="40" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
@@ -2157,7 +2139,7 @@
     </row>
     <row r="41" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
@@ -2189,13 +2171,13 @@
     </row>
     <row r="42" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
@@ -2207,7 +2189,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>8</v>
@@ -2221,7 +2203,7 @@
     </row>
     <row r="43" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
@@ -2253,7 +2235,7 @@
     </row>
     <row r="44" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
@@ -2285,13 +2267,13 @@
     </row>
     <row r="45" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>37</v>
@@ -2317,7 +2299,7 @@
     </row>
     <row r="46" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
@@ -2349,7 +2331,7 @@
     </row>
     <row r="47" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>12</v>
@@ -2413,13 +2395,13 @@
     </row>
     <row r="49" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>37</v>
@@ -2477,7 +2459,7 @@
     </row>
     <row r="51" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>12</v>
@@ -2509,7 +2491,7 @@
     </row>
     <row r="52" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>12</v>
@@ -2541,13 +2523,13 @@
     </row>
     <row r="53" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>14</v>
@@ -2573,7 +2555,7 @@
     </row>
     <row r="54" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>12</v>
@@ -2588,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -2605,13 +2587,13 @@
     </row>
     <row r="55" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>14</v>
@@ -2637,7 +2619,7 @@
     </row>
     <row r="56" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>12</v>
@@ -2669,7 +2651,7 @@
     </row>
     <row r="57" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>12</v>
@@ -2733,13 +2715,13 @@
     </row>
     <row r="59" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>14</v>
@@ -2765,13 +2747,13 @@
     </row>
     <row r="60" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>14</v>

--- a/s7/entrees.xlsx
+++ b/s7/entrees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64053284332b5f0/Documents/Work/Perso/Projets/RP1/RP1_Fantasy/s7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_FE006E5A907481A1A8DF32EBFBA4878FA08CFD41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F74E3EB-471E-4A56-944B-38F4C5DD7D75}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_FE006E5A907481A1A8DF32EBFBA4878FA08CFD41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A82805B4-491F-4273-BF3C-CAB4558218C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2145" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="128">
   <si>
     <t>Discord#0000</t>
   </si>
@@ -46,9 +46,6 @@
     <t>MCR Path</t>
   </si>
   <si>
-    <t>RP1 Owain</t>
-  </si>
-  <si>
     <t>F1M AlexGT500</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>RP1 Varane</t>
   </si>
   <si>
-    <t>PuR Snika</t>
-  </si>
-  <si>
     <t>FcT LaSouche</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>RP1 Skyzzz</t>
   </si>
   <si>
-    <t>RP1 Durtom</t>
-  </si>
-  <si>
     <t>LDL Shermy</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>Vinboy#8739</t>
   </si>
   <si>
-    <t>LDL Zepro</t>
-  </si>
-  <si>
     <t>MiRaGE#6568</t>
   </si>
   <si>
@@ -175,9 +163,6 @@
     <t>RP1 Papash #1147</t>
   </si>
   <si>
-    <t>RP1 Okwaru</t>
-  </si>
-  <si>
     <t>iF1 Supr3me</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
     <t>ERT Matfax</t>
   </si>
   <si>
-    <t>XRT Marth</t>
-  </si>
-  <si>
     <t>LePtit03</t>
   </si>
   <si>
@@ -226,9 +208,6 @@
     <t>ERT KaranoX#8559</t>
   </si>
   <si>
-    <t>KS Virtuozz</t>
-  </si>
-  <si>
     <t>MCR Path#8207</t>
   </si>
   <si>
@@ -241,9 +220,6 @@
     <t>FcT Specktre</t>
   </si>
   <si>
-    <t>F1XR Noich</t>
-  </si>
-  <si>
     <t>PuR Lowky#2789</t>
   </si>
   <si>
@@ -286,9 +262,6 @@
     <t>K'n'F Fradj#0274</t>
   </si>
   <si>
-    <t>FcT Daigoro</t>
-  </si>
-  <si>
     <t>XRT Darkfly#3727</t>
   </si>
   <si>
@@ -304,103 +277,133 @@
     <t>RP1 Adam</t>
   </si>
   <si>
-    <t>RP1 DurTom Tom#1584</t>
-  </si>
-  <si>
     <t>RP1 Gachette#9691</t>
   </si>
   <si>
+    <t>BatXOne#8529</t>
+  </si>
+  <si>
+    <t>ERT Niloboo</t>
+  </si>
+  <si>
+    <t>MCR JAYRKO#5703</t>
+  </si>
+  <si>
+    <t>FcT Deadpool #3868</t>
+  </si>
+  <si>
+    <t>FcT LaSouche#9836</t>
+  </si>
+  <si>
+    <t>PuR Ultraaa#9615</t>
+  </si>
+  <si>
+    <t>RP1 Maldini#2971</t>
+  </si>
+  <si>
+    <t>RP1 Vara#2877</t>
+  </si>
+  <si>
+    <t>RS Al3xx#2452</t>
+  </si>
+  <si>
+    <t>ERT Karanox</t>
+  </si>
+  <si>
+    <t>RP1 Okwaru#9095</t>
+  </si>
+  <si>
+    <t>RP1 Chadoo</t>
+  </si>
+  <si>
+    <t>Julien SCH#1209</t>
+  </si>
+  <si>
+    <t>RP1 Adam #6474</t>
+  </si>
+  <si>
+    <t>Poitou#7194</t>
+  </si>
+  <si>
+    <t>Leonh4rte#8727</t>
+  </si>
+  <si>
+    <t>PuR Vincent#5110</t>
+  </si>
+  <si>
+    <t>Mihai Rl#1826</t>
+  </si>
+  <si>
+    <t>PuRa Jager#9830</t>
+  </si>
+  <si>
+    <t>PuR Ripply#5504</t>
+  </si>
+  <si>
+    <t>ERT Flyart</t>
+  </si>
+  <si>
+    <t>F1M ALEXGT500#2172</t>
+  </si>
+  <si>
+    <t>PuR Rosberg#9765</t>
+  </si>
+  <si>
+    <t>Ert redevils</t>
+  </si>
+  <si>
+    <t>SsA PixKeaper#9050</t>
+  </si>
+  <si>
+    <t>Non4me Cami#7515</t>
+  </si>
+  <si>
+    <t>PuR Thomas11#3239</t>
+  </si>
+  <si>
+    <t>PuR Thomas</t>
+  </si>
+  <si>
+    <t>PuRa Chime</t>
+  </si>
+  <si>
+    <t>PuR Voltha</t>
+  </si>
+  <si>
+    <t>ASE Luisnts1</t>
+  </si>
+  <si>
+    <t>LOC WarF1</t>
+  </si>
+  <si>
     <t>LDL ZePro#4597</t>
   </si>
   <si>
-    <t>BatXOne#8529</t>
-  </si>
-  <si>
-    <t>ERT Niloboo</t>
-  </si>
-  <si>
-    <t>MCR JAYRKO#5703</t>
-  </si>
-  <si>
-    <t>FcT Deadpool #3868</t>
-  </si>
-  <si>
-    <t>FcT LaSouche#9836</t>
-  </si>
-  <si>
-    <t>PuR Ultraaa#9615</t>
-  </si>
-  <si>
-    <t>RP1 Maldini#2971</t>
-  </si>
-  <si>
-    <t>RP1 Vara#2877</t>
-  </si>
-  <si>
-    <t>RS Al3xx#2452</t>
-  </si>
-  <si>
-    <t>ERT Karanox</t>
-  </si>
-  <si>
-    <t>RP1 Okwaru#9095</t>
-  </si>
-  <si>
-    <t>RP1 Chadoo</t>
-  </si>
-  <si>
-    <t>Julien SCH#1209</t>
-  </si>
-  <si>
-    <t>RP1 Adam #6474</t>
-  </si>
-  <si>
-    <t>Poitou#7194</t>
-  </si>
-  <si>
-    <t>Leonh4rte#8727</t>
-  </si>
-  <si>
-    <t>PuR Vincent#5110</t>
-  </si>
-  <si>
-    <t>Mihai Rl#1826</t>
-  </si>
-  <si>
-    <t>PuRa Jager#9830</t>
-  </si>
-  <si>
-    <t>PuR Ripply#5504</t>
-  </si>
-  <si>
-    <t>ERT Flyart</t>
-  </si>
-  <si>
-    <t>F1M ALEXGT500#2172</t>
-  </si>
-  <si>
-    <t>PuR Rosberg#9765</t>
-  </si>
-  <si>
-    <t>Ert redevils</t>
-  </si>
-  <si>
-    <t>SsA PixKeaper#9050</t>
-  </si>
-  <si>
-    <t>Non4me Cami#7515</t>
-  </si>
-  <si>
-    <t>PuR Thomas11#3239</t>
-  </si>
-  <si>
-    <t>PuR Thomas</t>
-  </si>
-  <si>
-    <t>PuRa Chime</t>
-  </si>
-  <si>
-    <t>PuR Voltha</t>
+    <t>Wissam</t>
+  </si>
+  <si>
+    <t>Djedjam</t>
+  </si>
+  <si>
+    <t>RP1 Durtom Tom#1584</t>
+  </si>
+  <si>
+    <t>Tonati2514</t>
+  </si>
+  <si>
+    <t>Istoozen Eko</t>
+  </si>
+  <si>
+    <t>PuR Lowky</t>
+  </si>
+  <si>
+    <t>RP1 Varane#7856</t>
+  </si>
+  <si>
+    <t>SHZ Piccolo</t>
+  </si>
+  <si>
+    <t>PuR Nygraal</t>
   </si>
 </sst>
 </file>
@@ -580,6 +583,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,1526 +934,1526 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E24" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="I25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="I26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="J27" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="H30" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="G32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="H37" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="E38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="J38" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="H40" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E41" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="H45" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E47" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="H48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2457,348 +2464,348 @@
         <v>5</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="G50" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="F53" s="8" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E55" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E56" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="I57" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E59" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="E60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="I60" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/s7/entrees.xlsx
+++ b/s7/entrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64053284332b5f0/Documents/Work/Perso/Projets/RP1/RP1_Fantasy/s7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_FE006E5A907481A1A8DF32EBFBA4878FA08CFD41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A82805B4-491F-4273-BF3C-CAB4558218C0}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_FE006E5A907481A1A8DF32EBFBA4878FA08CFD41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42AE4C97-DA26-42B6-94A9-9D1C60DDC294}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2145" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>XRT Darkfly</t>
   </si>
   <si>
-    <t>FcT Deadpool</t>
-  </si>
-  <si>
     <t>FcT Specktre</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>MCR JAYRKO#5703</t>
   </si>
   <si>
-    <t>FcT Deadpool #3868</t>
-  </si>
-  <si>
     <t>FcT LaSouche#9836</t>
   </si>
   <si>
@@ -400,10 +394,16 @@
     <t>RP1 Varane#7856</t>
   </si>
   <si>
-    <t>SHZ Piccolo</t>
-  </si>
-  <si>
     <t>PuR Nygraal</t>
+  </si>
+  <si>
+    <t>Mirage9150</t>
+  </si>
+  <si>
+    <t>FcT Deadpool#3868</t>
+  </si>
+  <si>
+    <t>RP1 Maldini</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,10 +934,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>8</v>
@@ -946,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>13</v>
@@ -1007,10 +1007,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>23</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
@@ -1062,10 +1062,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>26</v>
@@ -1074,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>33</v>
@@ -1103,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>37</v>
@@ -1126,7 +1126,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>36</v>
@@ -1135,10 +1135,10 @@
         <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>40</v>
@@ -1158,10 +1158,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>26</v>
@@ -1190,16 +1190,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>37</v>
@@ -1222,7 +1222,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>36</v>
@@ -1245,7 +1245,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>24</v>
@@ -1263,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>28</v>
@@ -1286,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>50</v>
@@ -1295,7 +1295,7 @@
         <v>51</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>52</v>
@@ -1318,7 +1318,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>54</v>
@@ -1350,7 +1350,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>50</v>
@@ -1382,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>50</v>
@@ -1397,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,24 +1417,24 @@
         <v>63</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>12</v>
@@ -1446,7 +1446,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>21</v>
@@ -1455,13 +1455,13 @@
         <v>26</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>36</v>
@@ -1487,7 +1487,7 @@
         <v>26</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>37</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>12</v>
@@ -1510,16 +1510,16 @@
         <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>42</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>12</v>
@@ -1542,7 +1542,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>54</v>
@@ -1562,19 +1562,19 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>36</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>5</v>
@@ -1606,16 +1606,16 @@
         <v>35</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>37</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>12</v>
@@ -1638,19 +1638,19 @@
         <v>13</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>45</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>35</v>
@@ -1673,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>55</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
@@ -1705,7 +1705,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>26</v>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>57</v>
@@ -1734,7 +1734,7 @@
         <v>35</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>15</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>12</v>
@@ -1766,10 +1766,10 @@
         <v>35</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -1786,19 +1786,19 @@
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>36</v>
@@ -1807,7 +1807,7 @@
         <v>51</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>17</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>12</v>
@@ -1830,7 +1830,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>50</v>
@@ -1839,7 +1839,7 @@
         <v>22</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>28</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>12</v>
@@ -1862,10 +1862,10 @@
         <v>35</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>26</v>
@@ -1874,7 +1874,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>33</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>12</v>
@@ -1894,16 +1894,16 @@
         <v>13</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>17</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>12</v>
@@ -1926,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>36</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>12</v>
@@ -1958,7 +1958,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>36</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>12</v>
@@ -1990,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>36</v>
@@ -1999,18 +1999,18 @@
         <v>22</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>12</v>
@@ -2031,7 +2031,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>59</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>12</v>
@@ -2054,7 +2054,7 @@
         <v>35</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>50</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>12</v>
@@ -2086,10 +2086,10 @@
         <v>13</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>26</v>
@@ -2118,13 +2118,13 @@
         <v>7</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>16</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>12</v>
@@ -2150,7 +2150,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>36</v>
@@ -2159,18 +2159,18 @@
         <v>22</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>12</v>
@@ -2182,16 +2182,16 @@
         <v>13</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>28</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>12</v>
@@ -2217,10 +2217,10 @@
         <v>14</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>9</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>20</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>12</v>
@@ -2278,7 +2278,7 @@
         <v>35</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>21</v>
@@ -2287,7 +2287,7 @@
         <v>26</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>28</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>12</v>
@@ -2310,7 +2310,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>50</v>
@@ -2319,7 +2319,7 @@
         <v>55</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>59</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>12</v>
@@ -2342,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>36</v>
@@ -2351,7 +2351,7 @@
         <v>22</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>37</v>
@@ -2362,13 +2362,13 @@
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>13</v>
@@ -2406,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>36</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>5</v>
@@ -2453,7 +2453,7 @@
         <v>17</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,7 +2482,7 @@
         <v>27</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>10</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>12</v>
@@ -2502,7 +2502,7 @@
         <v>13</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>54</v>
@@ -2511,10 +2511,10 @@
         <v>26</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>33</v>
@@ -2522,19 +2522,19 @@
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>15</v>
@@ -2543,7 +2543,7 @@
         <v>26</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>37</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>12</v>
@@ -2566,16 +2566,16 @@
         <v>13</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>42</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>12</v>
@@ -2598,10 +2598,10 @@
         <v>20</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>26</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>12</v>
@@ -2630,7 +2630,7 @@
         <v>13</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>54</v>
@@ -2639,10 +2639,10 @@
         <v>8</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>29</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>12</v>
@@ -2662,10 +2662,10 @@
         <v>13</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>26</v>
@@ -2674,7 +2674,7 @@
         <v>27</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>23</v>
@@ -2682,13 +2682,13 @@
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>35</v>
@@ -2700,13 +2700,13 @@
         <v>50</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>45</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>12</v>
@@ -2735,10 +2735,10 @@
         <v>26</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>45</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>12</v>
@@ -2758,16 +2758,16 @@
         <v>13</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>59</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>12</v>
@@ -2790,19 +2790,19 @@
         <v>13</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>45</v>

--- a/s7/entrees.xlsx
+++ b/s7/entrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64053284332b5f0/Documents/Work/Perso/Projets/RP1/RP1_Fantasy/s7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_FE006E5A907481A1A8DF32EBFBA4878FA08CFD41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42AE4C97-DA26-42B6-94A9-9D1C60DDC294}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_FE006E5A907481A1A8DF32EBFBA4878FA08CFD41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38ACF235-DF47-485C-9169-A97FAE0C8A07}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -46,364 +46,364 @@
     <t>MCR Path</t>
   </si>
   <si>
+    <t>FcT Tweekaz</t>
+  </si>
+  <si>
+    <t>MVT Fly</t>
+  </si>
+  <si>
+    <t>CRL Bikette #5237</t>
+  </si>
+  <si>
+    <t>WOR Noctis</t>
+  </si>
+  <si>
+    <t>RP1 Varane</t>
+  </si>
+  <si>
+    <t>FcT LaSouche</t>
+  </si>
+  <si>
+    <t>RP1 Gachette</t>
+  </si>
+  <si>
+    <t>RP1 Ice</t>
+  </si>
+  <si>
+    <t>CRL Bikette</t>
+  </si>
+  <si>
+    <t>RP1 iiuK#1332</t>
+  </si>
+  <si>
+    <t>RP1 Winterr</t>
+  </si>
+  <si>
+    <t>XRT Oxygen</t>
+  </si>
+  <si>
+    <t>Yozana</t>
+  </si>
+  <si>
+    <t>RP1 Skyzzz</t>
+  </si>
+  <si>
+    <t>LDL Shermy</t>
+  </si>
+  <si>
+    <t>FRA Raaven</t>
+  </si>
+  <si>
+    <t>RP1 Tribion</t>
+  </si>
+  <si>
+    <t>PuR Ilton</t>
+  </si>
+  <si>
+    <t>NoN4me Cramer</t>
+  </si>
+  <si>
+    <t>MVT Kaio</t>
+  </si>
+  <si>
+    <t>ECS Flower</t>
+  </si>
+  <si>
+    <t>JNPJD#6703</t>
+  </si>
+  <si>
+    <t>Heroziah</t>
+  </si>
+  <si>
+    <t>PuR Ultraaa</t>
+  </si>
+  <si>
+    <t>Emeric</t>
+  </si>
+  <si>
+    <t>RP1 Fifou#8771</t>
+  </si>
+  <si>
+    <t>MCR Jayrko</t>
+  </si>
+  <si>
+    <t>MCR SpaceX</t>
+  </si>
+  <si>
+    <t>RP1 Fifou</t>
+  </si>
+  <si>
+    <t>RP1 Caotik</t>
+  </si>
+  <si>
+    <t>PuR Rosberg</t>
+  </si>
+  <si>
+    <t>KNF Fradj</t>
+  </si>
+  <si>
+    <t>PuR Ilton#1432</t>
+  </si>
+  <si>
+    <t>aRAC Zer</t>
+  </si>
+  <si>
+    <t>Vinboy#8739</t>
+  </si>
+  <si>
+    <t>MiRaGE#6568</t>
+  </si>
+  <si>
+    <t>NoN4me Bappe</t>
+  </si>
+  <si>
+    <t>RP1 Papash #1147</t>
+  </si>
+  <si>
+    <t>iF1 Supr3me</t>
+  </si>
+  <si>
+    <t>PuRa Jager</t>
+  </si>
+  <si>
+    <t>ERT FlYArTT#0001</t>
+  </si>
+  <si>
+    <t>ECS Finesse</t>
+  </si>
+  <si>
+    <t>ERT Matfax</t>
+  </si>
+  <si>
+    <t>LePtit03</t>
+  </si>
+  <si>
+    <t>FcT Coco #6690</t>
+  </si>
+  <si>
+    <t>PuRa Tomoe</t>
+  </si>
+  <si>
+    <t>FcT Coco</t>
+  </si>
+  <si>
+    <t>Oli0055#6847</t>
+  </si>
+  <si>
+    <t>LDL Oli</t>
+  </si>
+  <si>
+    <t>XRT Nico2a</t>
+  </si>
+  <si>
+    <t>NoN4me Lucas</t>
+  </si>
+  <si>
+    <t>JNPJD</t>
+  </si>
+  <si>
+    <t>ERT KaranoX#8559</t>
+  </si>
+  <si>
+    <t>MCR Path#8207</t>
+  </si>
+  <si>
+    <t>XRT Darkfly</t>
+  </si>
+  <si>
+    <t>FcT Specktre</t>
+  </si>
+  <si>
+    <t>PuR Lowky#2789</t>
+  </si>
+  <si>
+    <t>PuR Mattuvu#8960</t>
+  </si>
+  <si>
+    <t>Raven_#1681</t>
+  </si>
+  <si>
+    <t>ERT Aurelius</t>
+  </si>
+  <si>
+    <t>ERT BatXone</t>
+  </si>
+  <si>
+    <t>XRT Arthur</t>
+  </si>
+  <si>
+    <t>LDL Shermy#1524</t>
+  </si>
+  <si>
+    <t>PuR Vincent</t>
+  </si>
+  <si>
+    <t>Shadd#1684</t>
+  </si>
+  <si>
+    <t>NoN4me Geckoz</t>
+  </si>
+  <si>
+    <t>NoN4me Jordy</t>
+  </si>
+  <si>
+    <t>Shadd</t>
+  </si>
+  <si>
+    <t>K'n'F Fradj#0274</t>
+  </si>
+  <si>
+    <t>XRT Darkfly#3727</t>
+  </si>
+  <si>
+    <t>ERT Matfax#0803</t>
+  </si>
+  <si>
+    <t>Nofeuskri#4746</t>
+  </si>
+  <si>
+    <t>ERT Jet#0218</t>
+  </si>
+  <si>
+    <t>RP1 Adam</t>
+  </si>
+  <si>
+    <t>RP1 Gachette#9691</t>
+  </si>
+  <si>
+    <t>BatXOne#8529</t>
+  </si>
+  <si>
+    <t>ERT Niloboo</t>
+  </si>
+  <si>
+    <t>MCR JAYRKO#5703</t>
+  </si>
+  <si>
+    <t>FcT LaSouche#9836</t>
+  </si>
+  <si>
+    <t>PuR Ultraaa#9615</t>
+  </si>
+  <si>
+    <t>RP1 Maldini#2971</t>
+  </si>
+  <si>
+    <t>RP1 Vara#2877</t>
+  </si>
+  <si>
+    <t>RS Al3xx#2452</t>
+  </si>
+  <si>
+    <t>ERT Karanox</t>
+  </si>
+  <si>
+    <t>RP1 Okwaru#9095</t>
+  </si>
+  <si>
+    <t>RP1 Chadoo</t>
+  </si>
+  <si>
+    <t>Julien SCH#1209</t>
+  </si>
+  <si>
+    <t>RP1 Adam #6474</t>
+  </si>
+  <si>
+    <t>Poitou#7194</t>
+  </si>
+  <si>
+    <t>Leonh4rte#8727</t>
+  </si>
+  <si>
+    <t>PuR Vincent#5110</t>
+  </si>
+  <si>
+    <t>Mihai Rl#1826</t>
+  </si>
+  <si>
+    <t>PuRa Jager#9830</t>
+  </si>
+  <si>
+    <t>PuR Ripply#5504</t>
+  </si>
+  <si>
+    <t>ERT Flyart</t>
+  </si>
+  <si>
+    <t>PuR Rosberg#9765</t>
+  </si>
+  <si>
+    <t>Ert redevils</t>
+  </si>
+  <si>
+    <t>SsA PixKeaper#9050</t>
+  </si>
+  <si>
+    <t>Non4me Cami#7515</t>
+  </si>
+  <si>
+    <t>PuR Thomas11#3239</t>
+  </si>
+  <si>
+    <t>PuR Thomas</t>
+  </si>
+  <si>
+    <t>PuRa Chime</t>
+  </si>
+  <si>
+    <t>PuR Voltha</t>
+  </si>
+  <si>
+    <t>ASE Luisnts1</t>
+  </si>
+  <si>
+    <t>LOC WarF1</t>
+  </si>
+  <si>
+    <t>LDL ZePro#4597</t>
+  </si>
+  <si>
+    <t>Wissam</t>
+  </si>
+  <si>
+    <t>Djedjam</t>
+  </si>
+  <si>
+    <t>RP1 Durtom Tom#1584</t>
+  </si>
+  <si>
+    <t>Tonati2514</t>
+  </si>
+  <si>
+    <t>Istoozen Eko</t>
+  </si>
+  <si>
+    <t>PuR Lowky</t>
+  </si>
+  <si>
+    <t>RP1 Varane#7856</t>
+  </si>
+  <si>
+    <t>PuR Nygraal</t>
+  </si>
+  <si>
+    <t>Mirage9150</t>
+  </si>
+  <si>
+    <t>FcT Deadpool#3868</t>
+  </si>
+  <si>
+    <t>RP1 Maldini</t>
+  </si>
+  <si>
+    <t>Vega Elsass</t>
+  </si>
+  <si>
+    <t>F1M AlexGT500#2172</t>
+  </si>
+  <si>
     <t>F1M AlexGT500</t>
-  </si>
-  <si>
-    <t>FcT Tweekaz</t>
-  </si>
-  <si>
-    <t>MVT Fly</t>
-  </si>
-  <si>
-    <t>CRL Bikette #5237</t>
-  </si>
-  <si>
-    <t>WOR Noctis</t>
-  </si>
-  <si>
-    <t>RP1 Varane</t>
-  </si>
-  <si>
-    <t>FcT LaSouche</t>
-  </si>
-  <si>
-    <t>RP1 Gachette</t>
-  </si>
-  <si>
-    <t>RP1 Ice</t>
-  </si>
-  <si>
-    <t>CRL Bikette</t>
-  </si>
-  <si>
-    <t>RP1 iiuK#1332</t>
-  </si>
-  <si>
-    <t>RP1 Winterr</t>
-  </si>
-  <si>
-    <t>XRT Oxygen</t>
-  </si>
-  <si>
-    <t>Yozana</t>
-  </si>
-  <si>
-    <t>RP1 Skyzzz</t>
-  </si>
-  <si>
-    <t>LDL Shermy</t>
-  </si>
-  <si>
-    <t>FRA Raaven</t>
-  </si>
-  <si>
-    <t>RP1 Tribion</t>
-  </si>
-  <si>
-    <t>PuR Ilton</t>
-  </si>
-  <si>
-    <t>NoN4me Cramer</t>
-  </si>
-  <si>
-    <t>MVT Kaio</t>
-  </si>
-  <si>
-    <t>ECS Flower</t>
-  </si>
-  <si>
-    <t>JNPJD#6703</t>
-  </si>
-  <si>
-    <t>Heroziah</t>
-  </si>
-  <si>
-    <t>PuR Ultraaa</t>
-  </si>
-  <si>
-    <t>Emeric</t>
-  </si>
-  <si>
-    <t>RP1 Fifou#8771</t>
-  </si>
-  <si>
-    <t>MCR Jayrko</t>
-  </si>
-  <si>
-    <t>MCR SpaceX</t>
-  </si>
-  <si>
-    <t>RP1 Fifou</t>
-  </si>
-  <si>
-    <t>RP1 Caotik</t>
-  </si>
-  <si>
-    <t>PuR Rosberg</t>
-  </si>
-  <si>
-    <t>KNF Fradj</t>
-  </si>
-  <si>
-    <t>PuR Ilton#1432</t>
-  </si>
-  <si>
-    <t>aRAC Zer</t>
-  </si>
-  <si>
-    <t>Vinboy#8739</t>
-  </si>
-  <si>
-    <t>MiRaGE#6568</t>
-  </si>
-  <si>
-    <t>NoN4me Bappe</t>
-  </si>
-  <si>
-    <t>RP1 Papash #1147</t>
-  </si>
-  <si>
-    <t>iF1 Supr3me</t>
-  </si>
-  <si>
-    <t>PuRa Jager</t>
-  </si>
-  <si>
-    <t>ERT FlYArTT#0001</t>
-  </si>
-  <si>
-    <t>ECS Finesse</t>
-  </si>
-  <si>
-    <t>ERT Matfax</t>
-  </si>
-  <si>
-    <t>LePtit03</t>
-  </si>
-  <si>
-    <t>FcT Coco #6690</t>
-  </si>
-  <si>
-    <t>PuRa Tomoe</t>
-  </si>
-  <si>
-    <t>FcT Coco</t>
-  </si>
-  <si>
-    <t>Oli0055#6847</t>
-  </si>
-  <si>
-    <t>LDL Oli</t>
-  </si>
-  <si>
-    <t>XRT Nico2a</t>
-  </si>
-  <si>
-    <t>NoN4me Lucas</t>
-  </si>
-  <si>
-    <t>JNPJD</t>
-  </si>
-  <si>
-    <t>ERT KaranoX#8559</t>
-  </si>
-  <si>
-    <t>MCR Path#8207</t>
-  </si>
-  <si>
-    <t>XRT Darkfly</t>
-  </si>
-  <si>
-    <t>FcT Specktre</t>
-  </si>
-  <si>
-    <t>PuR Lowky#2789</t>
-  </si>
-  <si>
-    <t>PuR Racing</t>
-  </si>
-  <si>
-    <t>PuR Mattuvu#8960</t>
-  </si>
-  <si>
-    <t>Raven_#1681</t>
-  </si>
-  <si>
-    <t>ERT Aurelius</t>
-  </si>
-  <si>
-    <t>ERT BatXone</t>
-  </si>
-  <si>
-    <t>XRT Arthur</t>
-  </si>
-  <si>
-    <t>LDL Shermy#1524</t>
-  </si>
-  <si>
-    <t>PuR Vincent</t>
-  </si>
-  <si>
-    <t>Shadd#1684</t>
-  </si>
-  <si>
-    <t>NoN4me Geckoz</t>
-  </si>
-  <si>
-    <t>NoN4me Jordy</t>
-  </si>
-  <si>
-    <t>Shadd</t>
-  </si>
-  <si>
-    <t>K'n'F Fradj#0274</t>
-  </si>
-  <si>
-    <t>XRT Darkfly#3727</t>
-  </si>
-  <si>
-    <t>ERT Matfax#0803</t>
-  </si>
-  <si>
-    <t>Nofeuskri#4746</t>
-  </si>
-  <si>
-    <t>ERT Jet#0218</t>
-  </si>
-  <si>
-    <t>RP1 Adam</t>
-  </si>
-  <si>
-    <t>RP1 Gachette#9691</t>
-  </si>
-  <si>
-    <t>BatXOne#8529</t>
-  </si>
-  <si>
-    <t>ERT Niloboo</t>
-  </si>
-  <si>
-    <t>MCR JAYRKO#5703</t>
-  </si>
-  <si>
-    <t>FcT LaSouche#9836</t>
-  </si>
-  <si>
-    <t>PuR Ultraaa#9615</t>
-  </si>
-  <si>
-    <t>RP1 Maldini#2971</t>
-  </si>
-  <si>
-    <t>RP1 Vara#2877</t>
-  </si>
-  <si>
-    <t>RS Al3xx#2452</t>
-  </si>
-  <si>
-    <t>ERT Karanox</t>
-  </si>
-  <si>
-    <t>RP1 Okwaru#9095</t>
-  </si>
-  <si>
-    <t>RP1 Chadoo</t>
-  </si>
-  <si>
-    <t>Julien SCH#1209</t>
-  </si>
-  <si>
-    <t>RP1 Adam #6474</t>
-  </si>
-  <si>
-    <t>Poitou#7194</t>
-  </si>
-  <si>
-    <t>Leonh4rte#8727</t>
-  </si>
-  <si>
-    <t>PuR Vincent#5110</t>
-  </si>
-  <si>
-    <t>Mihai Rl#1826</t>
-  </si>
-  <si>
-    <t>PuRa Jager#9830</t>
-  </si>
-  <si>
-    <t>PuR Ripply#5504</t>
-  </si>
-  <si>
-    <t>ERT Flyart</t>
-  </si>
-  <si>
-    <t>F1M ALEXGT500#2172</t>
-  </si>
-  <si>
-    <t>PuR Rosberg#9765</t>
-  </si>
-  <si>
-    <t>Ert redevils</t>
-  </si>
-  <si>
-    <t>SsA PixKeaper#9050</t>
-  </si>
-  <si>
-    <t>Non4me Cami#7515</t>
-  </si>
-  <si>
-    <t>PuR Thomas11#3239</t>
-  </si>
-  <si>
-    <t>PuR Thomas</t>
-  </si>
-  <si>
-    <t>PuRa Chime</t>
-  </si>
-  <si>
-    <t>PuR Voltha</t>
-  </si>
-  <si>
-    <t>ASE Luisnts1</t>
-  </si>
-  <si>
-    <t>LOC WarF1</t>
-  </si>
-  <si>
-    <t>LDL ZePro#4597</t>
-  </si>
-  <si>
-    <t>Wissam</t>
-  </si>
-  <si>
-    <t>Djedjam</t>
-  </si>
-  <si>
-    <t>RP1 Durtom Tom#1584</t>
-  </si>
-  <si>
-    <t>Tonati2514</t>
-  </si>
-  <si>
-    <t>Istoozen Eko</t>
-  </si>
-  <si>
-    <t>PuR Lowky</t>
-  </si>
-  <si>
-    <t>RP1 Varane#7856</t>
-  </si>
-  <si>
-    <t>PuR Nygraal</t>
-  </si>
-  <si>
-    <t>Mirage9150</t>
-  </si>
-  <si>
-    <t>FcT Deadpool#3868</t>
-  </si>
-  <si>
-    <t>RP1 Maldini</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,1526 +934,1526 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="J7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="J13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="H14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="I16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="I17" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="G18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="J19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="G20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="G22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="J22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="J24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="J26" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="J35" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="G36" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="G39" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E41" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="J46" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E47" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="E48" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,348 +2464,348 @@
         <v>5</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="H50" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E53" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H54" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E55" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E56" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H56" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="I56" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="J57" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="H59" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E60" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G60" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H60" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="J60" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/s7/entrees.xlsx
+++ b/s7/entrees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64053284332b5f0/Documents/Work/Perso/Projets/RP1/RP1_Fantasy/s7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_FE006E5A907481A1A8DF32EBFBA4878FA08CFD41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38ACF235-DF47-485C-9169-A97FAE0C8A07}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_FE006E5A907481A1A8DF32EBFBA4878FA08CFD41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E46F637-A052-43FD-92F0-1DC10B4F330A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>MVT Kaio</t>
   </si>
   <si>
-    <t>ECS Flower</t>
-  </si>
-  <si>
     <t>JNPJD#6703</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>MCR Jayrko</t>
   </si>
   <si>
-    <t>MCR SpaceX</t>
-  </si>
-  <si>
     <t>RP1 Fifou</t>
   </si>
   <si>
@@ -355,9 +349,6 @@
     <t>PuR Voltha</t>
   </si>
   <si>
-    <t>ASE Luisnts1</t>
-  </si>
-  <si>
     <t>LOC WarF1</t>
   </si>
   <si>
@@ -404,6 +395,15 @@
   </si>
   <si>
     <t>F1M AlexGT500</t>
+  </si>
+  <si>
+    <t>NXS Tiga</t>
+  </si>
+  <si>
+    <t>Non4me Stuno</t>
+  </si>
+  <si>
+    <t>GL Tharsi</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,19 +934,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>12</v>
@@ -972,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>15</v>
@@ -1007,10 +1007,10 @@
         <v>21</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>22</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -1045,12 +1045,12 @@
         <v>27</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -1062,27 +1062,27 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -1091,22 +1091,22 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>22</v>
@@ -1114,54 +1114,54 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>25</v>
@@ -1170,47 +1170,47 @@
         <v>26</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -1219,13 +1219,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>25</v>
@@ -1237,15 +1237,15 @@
         <v>16</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>23</v>
@@ -1254,27 +1254,27 @@
         <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -1286,27 +1286,27 @@
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="J13" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -1315,22 +1315,22 @@
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>9</v>
@@ -1338,54 +1338,54 @@
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>25</v>
@@ -1394,47 +1394,47 @@
         <v>26</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
@@ -1446,7 +1446,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>20</v>
@@ -1455,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1478,27 +1478,27 @@
         <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
@@ -1507,22 +1507,22 @@
         <v>18</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>22</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
@@ -1539,13 +1539,13 @@
         <v>23</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>25</v>
@@ -1554,33 +1554,33 @@
         <v>8</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>15</v>
@@ -1589,36 +1589,36 @@
         <v>16</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>22</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
@@ -1638,59 +1638,59 @@
         <v>12</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="J24" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
@@ -1699,13 +1699,13 @@
         <v>23</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>25</v>
@@ -1717,30 +1717,30 @@
         <v>27</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>26</v>
@@ -1749,27 +1749,27 @@
         <v>16</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -1778,68 +1778,68 @@
         <v>8</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>27</v>
@@ -1850,22 +1850,22 @@
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>25</v>
@@ -1874,15 +1874,15 @@
         <v>15</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
@@ -1894,45 +1894,45 @@
         <v>12</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>26</v>
@@ -1941,30 +1941,30 @@
         <v>16</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>26</v>
@@ -1973,44 +1973,44 @@
         <v>16</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -2019,22 +2019,22 @@
         <v>23</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>22</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>11</v>
@@ -2051,16 +2051,16 @@
         <v>23</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>8</v>
@@ -2069,39 +2069,39 @@
         <v>16</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,19 +2112,19 @@
         <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>15</v>
@@ -2138,39 +2138,39 @@
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>11</v>
@@ -2182,16 +2182,16 @@
         <v>12</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>11</v>
@@ -2217,10 +2217,10 @@
         <v>13</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>8</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>19</v>
@@ -2249,36 +2249,36 @@
         <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>20</v>
@@ -2287,18 +2287,18 @@
         <v>25</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>11</v>
@@ -2307,77 +2307,77 @@
         <v>23</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>25</v>
@@ -2386,7 +2386,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>9</v>
@@ -2406,10 +2406,10 @@
         <v>19</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>21</v>
@@ -2418,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>9</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>5</v>
@@ -2435,25 +2435,25 @@
         <v>23</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,7 +2482,7 @@
         <v>26</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>9</v>
@@ -2490,51 +2490,51 @@
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>14</v>
@@ -2543,18 +2543,18 @@
         <v>25</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>11</v>
@@ -2566,59 +2566,59 @@
         <v>12</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H54" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>11</v>
@@ -2630,42 +2630,42 @@
         <v>12</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G55" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>25</v>
@@ -2674,7 +2674,7 @@
         <v>26</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>22</v>
@@ -2682,45 +2682,45 @@
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>7</v>
@@ -2729,24 +2729,24 @@
         <v>13</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>11</v>
@@ -2758,27 +2758,27 @@
         <v>12</v>
       </c>
       <c r="E59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="H59" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>11</v>
@@ -2790,22 +2790,22 @@
         <v>12</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
